--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -240,7 +240,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -248,23 +248,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -272,10 +273,10 @@
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="30.6875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.5" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.6875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -841,273 +842,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41ADEB6-9E67-426C-A463-5E9825270926}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A65C86C-2FAA-44FF-9F38-33CF205BB369}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AF6873B-85D3-4961-8C53-1514C34AF360}"/>
 </file>
--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="68">
   <si>
     <t>Sezione</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>minuto</t>
+  </si>
+  <si>
+    <t>Dati Generali</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
   <si>
     <t>Deceduto</t>
@@ -265,7 +274,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -427,13 +436,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -441,19 +450,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -461,19 +470,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -481,19 +490,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -501,19 +510,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -521,19 +530,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -541,19 +550,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -561,19 +570,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -581,19 +590,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -601,19 +610,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -621,19 +630,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -641,19 +650,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -661,19 +670,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -681,19 +690,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -701,19 +710,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -721,19 +730,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -741,19 +750,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -761,19 +770,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -781,19 +790,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -801,19 +810,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -821,21 +830,41 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="76">
   <si>
     <t>Sezione</t>
   </si>
@@ -74,22 +74,46 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati Generali</t>
+    <t>Dati generali</t>
   </si>
   <si>
     <t>Data decorrenza</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>dataDecorrenza</t>
   </si>
   <si>
+    <t>Ora decorrenza</t>
+  </si>
+  <si>
+    <t>oraDecorrenza</t>
+  </si>
+  <si>
+    <t>Minuto decorrenza</t>
+  </si>
+  <si>
+    <t>minutoDecorrenza</t>
+  </si>
+  <si>
+    <t>Motivo recupero</t>
+  </si>
+  <si>
+    <t>motivoRecupero</t>
+  </si>
+  <si>
+    <t>Descrizione recupero</t>
+  </si>
+  <si>
+    <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
     <t>Deceduto</t>
   </si>
   <si>
     <t>Cognome</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>evento.intestatari[0]</t>
@@ -274,7 +298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -284,7 +308,7 @@
     <col min="2" max="2" width="30.6875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -436,13 +460,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -450,19 +474,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -470,19 +494,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -490,19 +514,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -510,19 +534,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -530,16 +554,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>35</v>
@@ -550,7 +574,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
@@ -559,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>37</v>
@@ -570,16 +594,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>39</v>
@@ -590,16 +614,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>41</v>
@@ -610,16 +634,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>43</v>
@@ -630,16 +654,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>45</v>
@@ -650,16 +674,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
@@ -670,16 +694,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>49</v>
@@ -690,16 +714,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
@@ -710,16 +734,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>53</v>
@@ -730,16 +754,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>55</v>
@@ -750,16 +774,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>57</v>
@@ -770,16 +794,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>59</v>
@@ -790,16 +814,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>61</v>
@@ -810,16 +834,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>63</v>
@@ -830,16 +854,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>65</v>
@@ -850,21 +874,101 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="78">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -298,7 +304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -310,6 +316,7 @@
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -331,25 +338,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -371,605 +384,698 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Formula</t>
@@ -316,7 +316,7 @@
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="79">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,19 +32,22 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>999.2.2</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>999.2.2</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -385,697 +388,697 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="109">
   <si>
     <t>Sezione</t>
   </si>
@@ -83,13 +83,103 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Dati decesso</t>
+  </si>
+  <si>
+    <t>Data morte</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>evento.datiDiMorte</t>
+  </si>
+  <si>
+    <t>dataMorte</t>
+  </si>
+  <si>
+    <t>Ora</t>
+  </si>
+  <si>
+    <t>oraMorte</t>
+  </si>
+  <si>
+    <t>Minuti</t>
+  </si>
+  <si>
+    <t>minutoMorte</t>
+  </si>
+  <si>
+    <t>Data presunta inizio</t>
+  </si>
+  <si>
+    <t>dataPresuntaMorteDa</t>
+  </si>
+  <si>
+    <t>Data presunta fine</t>
+  </si>
+  <si>
+    <t>dataPresuntaMorteA</t>
+  </si>
+  <si>
+    <t>Note data e ora presunta</t>
+  </si>
+  <si>
+    <t>testoDataPresuntaMorte</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>luogoMorte</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStatoMorte</t>
+  </si>
+  <si>
+    <t>Stato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoMorte</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComuneMorte</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneMorte</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzoMorte</t>
+  </si>
+  <si>
     <t>Dati generali</t>
   </si>
   <si>
     <t>Data decorrenza</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>dataDecorrenza</t>
@@ -307,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -494,10 +584,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
@@ -511,16 +601,16 @@
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
@@ -534,16 +624,16 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
@@ -557,16 +647,16 @@
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
@@ -580,16 +670,16 @@
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -600,7 +690,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
@@ -609,10 +699,10 @@
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -623,19 +713,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -646,19 +736,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -669,19 +759,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -692,19 +782,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -715,19 +805,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -738,19 +828,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -761,19 +851,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -784,19 +874,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -807,7 +897,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
@@ -816,7 +906,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -830,7 +920,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
@@ -839,7 +929,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -853,16 +943,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -876,16 +966,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>62</v>
@@ -899,16 +989,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>64</v>
@@ -922,19 +1012,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -945,19 +1035,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -968,19 +1058,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -991,19 +1081,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1014,19 +1104,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1037,19 +1127,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1060,24 +1150,346 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="E47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="79">
   <si>
     <t>Sezione</t>
   </si>
@@ -83,103 +83,13 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati decesso</t>
-  </si>
-  <si>
-    <t>Data morte</t>
+    <t>Dati generali</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>evento.datiDiMorte</t>
-  </si>
-  <si>
-    <t>dataMorte</t>
-  </si>
-  <si>
-    <t>Ora</t>
-  </si>
-  <si>
-    <t>oraMorte</t>
-  </si>
-  <si>
-    <t>Minuti</t>
-  </si>
-  <si>
-    <t>minutoMorte</t>
-  </si>
-  <si>
-    <t>Data presunta inizio</t>
-  </si>
-  <si>
-    <t>dataPresuntaMorteDa</t>
-  </si>
-  <si>
-    <t>Data presunta fine</t>
-  </si>
-  <si>
-    <t>dataPresuntaMorteA</t>
-  </si>
-  <si>
-    <t>Note data e ora presunta</t>
-  </si>
-  <si>
-    <t>testoDataPresuntaMorte</t>
-  </si>
-  <si>
-    <t>Luogo</t>
-  </si>
-  <si>
-    <t>luogoMorte</t>
-  </si>
-  <si>
-    <t>Stato</t>
-  </si>
-  <si>
-    <t>idStatoMorte</t>
-  </si>
-  <si>
-    <t>Stato - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoMorte</t>
-  </si>
-  <si>
-    <t>Provincia</t>
-  </si>
-  <si>
-    <t>idProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Provincia - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Comune</t>
-  </si>
-  <si>
-    <t>idComuneMorte</t>
-  </si>
-  <si>
-    <t>Comune - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneMorte</t>
-  </si>
-  <si>
-    <t>Indirizzo</t>
-  </si>
-  <si>
-    <t>indirizzoMorte</t>
-  </si>
-  <si>
-    <t>Dati generali</t>
-  </si>
-  <si>
-    <t>Data decorrenza</t>
   </si>
   <si>
     <t>dataDecorrenza</t>
@@ -397,7 +307,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -584,10 +494,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
@@ -601,16 +511,16 @@
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
@@ -624,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
@@ -647,16 +557,16 @@
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
@@ -670,16 +580,16 @@
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -690,7 +600,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
@@ -699,10 +609,10 @@
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -713,19 +623,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -736,19 +646,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -759,19 +669,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -782,19 +692,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -805,19 +715,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -828,19 +738,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -851,19 +761,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -874,19 +784,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -897,7 +807,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
@@ -906,7 +816,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -920,7 +830,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
@@ -929,7 +839,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -943,16 +853,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -966,16 +876,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>62</v>
@@ -989,16 +899,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>64</v>
@@ -1012,19 +922,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1035,19 +945,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1058,19 +968,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1081,19 +991,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1104,19 +1014,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1127,19 +1037,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1150,346 +1060,24 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="113">
   <si>
     <t>Sezione</t>
   </si>
@@ -83,15 +83,105 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Dati decesso</t>
+  </si>
+  <si>
+    <t>Data morte</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>evento.datiDiMorte</t>
+  </si>
+  <si>
+    <t>dataMorte</t>
+  </si>
+  <si>
+    <t>Ora</t>
+  </si>
+  <si>
+    <t>oraMorte</t>
+  </si>
+  <si>
+    <t>Minuti</t>
+  </si>
+  <si>
+    <t>minutoMorte</t>
+  </si>
+  <si>
+    <t>Data presunta inizio</t>
+  </si>
+  <si>
+    <t>dataPresuntaMorteDa</t>
+  </si>
+  <si>
+    <t>Data presunta fine</t>
+  </si>
+  <si>
+    <t>dataPresuntaMorteA</t>
+  </si>
+  <si>
+    <t>Note data e ora presunta</t>
+  </si>
+  <si>
+    <t>testoDataPresuntaMorte</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>luogoMorte</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStatoMorte</t>
+  </si>
+  <si>
+    <t>Stato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoMorte</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComuneMorte</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneMorte</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzoMorte</t>
+  </si>
+  <si>
     <t>Dati generali</t>
   </si>
   <si>
     <t>Data decorrenza</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>dataDecorrenza</t>
   </si>
   <si>
@@ -137,12 +227,6 @@
     <t>nome</t>
   </si>
   <si>
-    <t>Codice Fiscale</t>
-  </si>
-  <si>
-    <t>codiceFiscale</t>
-  </si>
-  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -155,94 +239,112 @@
     <t>dataNascita</t>
   </si>
   <si>
-    <t>Stato Nascita</t>
+    <t>Stato di nascita</t>
   </si>
   <si>
     <t>idStatoNascita</t>
   </si>
   <si>
-    <t>Stato Nascita - Descrizione</t>
+    <t>Stato di nascita - Descrizione</t>
   </si>
   <si>
     <t>nomeStatoNascita</t>
   </si>
   <si>
-    <t>Provincia Nascita</t>
+    <t>Provincia di nascita</t>
   </si>
   <si>
     <t>idProvinciaNascita</t>
   </si>
   <si>
-    <t>Provincia Nascita - Descrizione</t>
+    <t>Provincia di nascita - Descrizione</t>
   </si>
   <si>
     <t>siglaProvinciaNascita</t>
   </si>
   <si>
-    <t>Comune Nascita</t>
+    <t>Comune di nascita</t>
   </si>
   <si>
     <t>idComuneNascita</t>
   </si>
   <si>
-    <t>Comune Nascita - Descrizione</t>
+    <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Nazionalità</t>
+    <t>Nazionalita</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalità   - Descrizione</t>
+    <t>Nazionalita - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
   </si>
   <si>
-    <t>Stato Residenza</t>
+    <t>Stato di residenza</t>
   </si>
   <si>
     <t>idStatoResidenza</t>
   </si>
   <si>
-    <t>Stato Residenza - Descrizione</t>
+    <t>Stato di residenza - Descrizione</t>
   </si>
   <si>
     <t>nomeStatoResidenza</t>
   </si>
   <si>
-    <t>Provincia Residenza</t>
+    <t>Provincia di residenza</t>
   </si>
   <si>
     <t>idProvinciaResidenza</t>
   </si>
   <si>
-    <t>Provincia Residenza - Descrizione</t>
+    <t>Provincia di residenza - Descrizione</t>
   </si>
   <si>
     <t>siglaProvinciaResidenza</t>
   </si>
   <si>
-    <t>Comune Residenza</t>
+    <t>Comune di residenza</t>
   </si>
   <si>
     <t>idComuneResidenza</t>
   </si>
   <si>
-    <t>Comune Residenza - Descrizione</t>
+    <t>Comune di residenza - Descrizione</t>
   </si>
   <si>
     <t>nomeComuneResidenza</t>
   </si>
   <si>
-    <t>Indirizzo Residenza</t>
+    <t>Indirizzo di residenza</t>
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
   </si>
   <si>
     <t>Composizione libera</t>
@@ -307,14 +409,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.6875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
@@ -494,10 +596,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
@@ -511,16 +613,16 @@
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
@@ -534,16 +636,16 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
@@ -557,16 +659,16 @@
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
@@ -580,16 +682,16 @@
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -600,7 +702,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
@@ -609,10 +711,10 @@
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -623,19 +725,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -646,19 +748,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -669,19 +771,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -692,19 +794,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -715,19 +817,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -738,19 +840,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -761,19 +863,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -784,19 +886,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -807,7 +909,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
@@ -816,7 +918,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -830,7 +932,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
@@ -839,7 +941,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -853,16 +955,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -876,16 +978,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>62</v>
@@ -899,16 +1001,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>64</v>
@@ -922,19 +1024,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -945,19 +1047,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -968,19 +1070,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -991,19 +1093,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1014,19 +1116,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1037,19 +1139,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1060,24 +1162,392 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="E49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -347,10 +347,43 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Coniuge</t>
+  </si>
+  <si>
+    <t>evento.coniuge</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>Unito civilmente</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)</t>
+  </si>
+  <si>
     <t>Composizione libera</t>
   </si>
   <si>
     <t>composizioneCompleta</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Stato civile del defunto</t>
+  </si>
+  <si>
+    <t>idstatocivile</t>
+  </si>
+  <si>
+    <t>Stato civile del defunto - Descrizione</t>
+  </si>
+  <si>
+    <t>descrizionestatocivile</t>
   </si>
 </sst>
 </file>
@@ -409,19 +442,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1467,7 +1500,7 @@
         <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>67</v>
@@ -1533,21 +1566,1079 @@
         <v>111</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="B50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="2" t="s">
+      <c r="E93" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -345,6 +345,15 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Comparente</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMorte.comparente1</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Coniuge</t>
@@ -442,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -451,7 +460,7 @@
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="35.7109375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
@@ -1615,7 +1624,7 @@
         <v>71</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>112</v>
@@ -1638,7 +1647,7 @@
         <v>73</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>112</v>
@@ -1661,7 +1670,7 @@
         <v>75</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>112</v>
@@ -1684,7 +1693,7 @@
         <v>77</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>112</v>
@@ -1799,7 +1808,7 @@
         <v>87</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>112</v>
@@ -1822,7 +1831,7 @@
         <v>89</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>112</v>
@@ -1845,7 +1854,7 @@
         <v>91</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>112</v>
@@ -1868,7 +1877,7 @@
         <v>93</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>112</v>
@@ -2006,7 +2015,7 @@
         <v>105</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>112</v>
@@ -2029,7 +2038,7 @@
         <v>107</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>112</v>
@@ -2049,10 +2058,10 @@
         <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>112</v>
@@ -2069,7 +2078,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>66</v>
@@ -2078,7 +2087,7 @@
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>68</v>
@@ -2092,7 +2101,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>69</v>
@@ -2101,7 +2110,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>70</v>
@@ -2115,7 +2124,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>71</v>
@@ -2124,7 +2133,7 @@
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>72</v>
@@ -2138,7 +2147,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>73</v>
@@ -2147,7 +2156,7 @@
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>74</v>
@@ -2161,7 +2170,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>75</v>
@@ -2170,7 +2179,7 @@
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>76</v>
@@ -2184,7 +2193,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>77</v>
@@ -2193,7 +2202,7 @@
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>78</v>
@@ -2207,7 +2216,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>79</v>
@@ -2216,7 +2225,7 @@
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>80</v>
@@ -2230,7 +2239,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>81</v>
@@ -2239,7 +2248,7 @@
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>82</v>
@@ -2253,7 +2262,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>83</v>
@@ -2262,7 +2271,7 @@
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>84</v>
@@ -2276,7 +2285,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>85</v>
@@ -2285,7 +2294,7 @@
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>86</v>
@@ -2299,7 +2308,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>87</v>
@@ -2308,7 +2317,7 @@
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>88</v>
@@ -2322,7 +2331,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>89</v>
@@ -2331,7 +2340,7 @@
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>90</v>
@@ -2345,7 +2354,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>91</v>
@@ -2354,7 +2363,7 @@
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>92</v>
@@ -2368,7 +2377,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>93</v>
@@ -2377,7 +2386,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>94</v>
@@ -2391,7 +2400,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>95</v>
@@ -2400,7 +2409,7 @@
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>96</v>
@@ -2414,7 +2423,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>97</v>
@@ -2423,7 +2432,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>98</v>
@@ -2437,7 +2446,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>99</v>
@@ -2446,7 +2455,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>100</v>
@@ -2460,7 +2469,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>101</v>
@@ -2469,7 +2478,7 @@
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>102</v>
@@ -2483,7 +2492,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>103</v>
@@ -2492,7 +2501,7 @@
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>104</v>
@@ -2506,7 +2515,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>105</v>
@@ -2515,7 +2524,7 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>106</v>
@@ -2529,7 +2538,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>107</v>
@@ -2538,7 +2547,7 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>108</v>
@@ -2552,16 +2561,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>110</v>
@@ -2575,70 +2584,576 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B95" s="2" t="s">
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="B116" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
+      <c r="E116" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="154">
   <si>
     <t>Sezione</t>
   </si>
@@ -170,6 +170,12 @@
     <t>nomeComuneMorte</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
     <t>Indirizzo</t>
   </si>
   <si>
@@ -275,6 +281,9 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -354,6 +363,78 @@
   </si>
   <si>
     <t>opzionale</t>
+  </si>
+  <si>
+    <t>Atto collegato</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Coniuge</t>
@@ -451,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -951,19 +1032,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -974,7 +1055,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
@@ -997,7 +1078,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
@@ -1020,7 +1101,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>61</v>
@@ -1043,7 +1124,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>63</v>
@@ -1066,19 +1147,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1089,16 +1170,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1112,7 +1193,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -1121,7 +1202,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1135,7 +1216,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
@@ -1144,7 +1225,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1158,7 +1239,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1167,7 +1248,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1181,7 +1262,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
@@ -1190,7 +1271,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1204,16 +1285,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1227,7 +1308,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1236,7 +1317,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1250,7 +1331,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1259,7 +1340,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1273,7 +1354,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -1282,7 +1363,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1296,7 +1377,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1305,7 +1386,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1319,19 +1400,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1342,19 +1423,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1365,19 +1446,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1388,19 +1469,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1411,19 +1492,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1434,19 +1515,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1457,19 +1538,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1480,19 +1561,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1503,19 +1584,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1526,19 +1607,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1549,19 +1630,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1572,508 +1653,508 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71">
@@ -2081,16 +2162,16 @@
         <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2104,7 +2185,7 @@
         <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -2113,7 +2194,7 @@
         <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2127,16 +2208,16 @@
         <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2147,19 +2228,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2170,19 +2251,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2193,19 +2274,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2216,19 +2297,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2239,19 +2320,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2343,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2285,19 +2366,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2308,19 +2389,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2412,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2354,19 +2435,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2377,19 +2458,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2400,19 +2481,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2423,737 +2504,1128 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -474,6 +474,36 @@
   </si>
   <si>
     <t>descrizionestatocivile</t>
+  </si>
+  <si>
+    <t>Atto di nascita del deceduto</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.attoNascitaDeceduto</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -532,17 +562,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.12890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="35.7109375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.35546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2418,7 +2448,7 @@
         <v>134</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>119</v>
@@ -3591,7 +3621,7 @@
         <v>150</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>69</v>
@@ -3614,7 +3644,7 @@
         <v>152</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>69</v>
@@ -3626,6 +3656,351 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="172">
   <si>
     <t>Sezione</t>
   </si>
@@ -354,6 +354,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Comparente</t>
@@ -562,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1729,637 +1753,637 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>128</v>
@@ -2368,12 +2392,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>129</v>
@@ -2382,7 +2406,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>130</v>
@@ -2391,12 +2415,12 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>131</v>
@@ -2405,1364 +2429,1364 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>128</v>
@@ -3771,12 +3795,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>129</v>
@@ -3785,7 +3809,7 @@
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>130</v>
@@ -3794,12 +3818,12 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>131</v>
@@ -3808,199 +3832,291 @@
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E149" s="2" t="s">
+      <c r="B150" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
+      <c r="E150" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="174">
   <si>
     <t>Sezione</t>
   </si>
@@ -233,6 +233,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -284,13 +290,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -586,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1276,7 +1282,7 @@
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>69</v>
@@ -1368,7 +1374,7 @@
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>69</v>
@@ -1457,7 +1463,7 @@
         <v>67</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>25</v>
@@ -1466,7 +1472,7 @@
         <v>69</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1480,7 +1486,7 @@
         <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>25</v>
@@ -1845,1865 +1851,1865 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136">
@@ -3711,344 +3717,344 @@
         <v>155</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="E136" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C142" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E142" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="151">
@@ -4056,22 +4062,22 @@
         <v>164</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E151" s="2" t="s">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="152">
@@ -4079,22 +4085,22 @@
         <v>164</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="153">
@@ -4102,21 +4108,113 @@
         <v>164</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D153" s="2" t="s">
+      <c r="C156" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
+      <c r="B157" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -592,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1874,1934 +1880,1934 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140">
@@ -3809,344 +3815,344 @@
         <v>157</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="E140" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C146" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="155">
@@ -4154,22 +4160,22 @@
         <v>166</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="E155" s="2" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156">
@@ -4177,22 +4183,22 @@
         <v>166</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="157">
@@ -4200,21 +4206,113 @@
         <v>166</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D157" s="2" t="s">
+      <c r="C160" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
+      <c r="B161" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -598,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H165"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1903,2003 +1909,2003 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144">
@@ -3907,344 +3913,344 @@
         <v>159</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="E144" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C150" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="159">
@@ -4252,22 +4258,22 @@
         <v>168</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="160">
@@ -4275,22 +4281,22 @@
         <v>168</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="161">
@@ -4298,21 +4304,113 @@
         <v>168</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D161" s="2" t="s">
+      <c r="C164" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E161" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
+      <c r="B165" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -471,6 +471,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -604,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H165"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2806,1198 +2812,1198 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148">
@@ -4005,22 +4011,22 @@
         <v>161</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="E148" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="149">
@@ -4028,16 +4034,16 @@
         <v>163</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4048,7 +4054,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>166</v>
@@ -4071,42 +4077,42 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C151" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4117,19 +4123,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4140,19 +4146,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4163,19 +4169,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4186,19 +4192,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4209,19 +4215,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4232,19 +4238,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4255,19 +4261,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4278,19 +4284,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4301,19 +4307,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4324,19 +4330,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4350,22 +4356,22 @@
         <v>170</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="164">
@@ -4373,44 +4379,90 @@
         <v>170</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D165" s="2" t="s">
+      <c r="C166" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E165" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
+      <c r="B167" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -2864,7 +2864,7 @@
         <v>71</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>158</v>
@@ -3462,7 +3462,7 @@
         <v>71</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>158</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="182">
   <si>
     <t>Sezione</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Deceduto</t>
@@ -610,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1248,19 +1254,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1271,16 +1277,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1294,16 +1300,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1317,16 +1323,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1340,7 +1346,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
@@ -1349,7 +1355,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1363,7 +1369,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1372,7 +1378,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1386,7 +1392,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1395,7 +1401,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1409,16 +1415,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1432,7 +1438,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -1441,7 +1447,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1455,7 +1461,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1464,7 +1470,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1478,7 +1484,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1487,7 +1493,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1501,19 +1507,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1524,16 +1530,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>93</v>
@@ -1547,7 +1553,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>94</v>
@@ -1556,7 +1562,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1570,7 +1576,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>96</v>
@@ -1579,7 +1585,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>97</v>
@@ -1593,7 +1599,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>98</v>
@@ -1602,7 +1608,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>99</v>
@@ -1616,7 +1622,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>100</v>
@@ -1625,7 +1631,7 @@
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>101</v>
@@ -1639,7 +1645,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>102</v>
@@ -1648,7 +1654,7 @@
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>103</v>
@@ -1662,7 +1668,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>104</v>
@@ -1671,7 +1677,7 @@
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>105</v>
@@ -1685,7 +1691,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>106</v>
@@ -1694,7 +1700,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>107</v>
@@ -1708,7 +1714,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>108</v>
@@ -1717,7 +1723,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>109</v>
@@ -1731,7 +1737,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>110</v>
@@ -1740,7 +1746,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>111</v>
@@ -1754,7 +1760,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>112</v>
@@ -1763,7 +1769,7 @@
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>113</v>
@@ -1777,7 +1783,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>114</v>
@@ -1786,7 +1792,7 @@
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>115</v>
@@ -1800,7 +1806,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>116</v>
@@ -1809,7 +1815,7 @@
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>117</v>
@@ -1823,7 +1829,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>118</v>
@@ -1832,7 +1838,7 @@
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>119</v>
@@ -1846,7 +1852,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>120</v>
@@ -1855,7 +1861,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>121</v>
@@ -1869,7 +1875,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>122</v>
@@ -1878,7 +1884,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>123</v>
@@ -1892,7 +1898,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>124</v>
@@ -1901,7 +1907,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>125</v>
@@ -1915,7 +1921,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>126</v>
@@ -1924,7 +1930,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>127</v>
@@ -1938,39 +1944,39 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>72</v>
@@ -1979,21 +1985,21 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>74</v>
@@ -2002,21 +2008,21 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>76</v>
@@ -2025,12 +2031,12 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>77</v>
@@ -2039,7 +2045,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>78</v>
@@ -2048,12 +2054,12 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>79</v>
@@ -2062,7 +2068,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>80</v>
@@ -2071,12 +2077,12 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>81</v>
@@ -2085,7 +2091,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>82</v>
@@ -2094,21 +2100,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>84</v>
@@ -2117,12 +2123,12 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>85</v>
@@ -2131,7 +2137,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>86</v>
@@ -2140,12 +2146,12 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>87</v>
@@ -2154,7 +2160,7 @@
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>88</v>
@@ -2163,12 +2169,12 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>89</v>
@@ -2177,7 +2183,7 @@
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>90</v>
@@ -2186,44 +2192,44 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>93</v>
@@ -2232,12 +2238,12 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>94</v>
@@ -2246,7 +2252,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>95</v>
@@ -2255,21 +2261,21 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>97</v>
@@ -2278,12 +2284,12 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>98</v>
@@ -2292,7 +2298,7 @@
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>99</v>
@@ -2301,12 +2307,12 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>100</v>
@@ -2315,7 +2321,7 @@
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>101</v>
@@ -2324,12 +2330,12 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>102</v>
@@ -2338,7 +2344,7 @@
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>103</v>
@@ -2347,12 +2353,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>104</v>
@@ -2361,7 +2367,7 @@
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>105</v>
@@ -2370,12 +2376,12 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>106</v>
@@ -2384,7 +2390,7 @@
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>107</v>
@@ -2393,12 +2399,12 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>108</v>
@@ -2407,7 +2413,7 @@
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>109</v>
@@ -2416,12 +2422,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>110</v>
@@ -2430,7 +2436,7 @@
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>111</v>
@@ -2439,12 +2445,12 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>112</v>
@@ -2453,7 +2459,7 @@
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>113</v>
@@ -2462,21 +2468,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>115</v>
@@ -2485,12 +2491,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>116</v>
@@ -2499,7 +2505,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>117</v>
@@ -2508,12 +2514,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>118</v>
@@ -2522,7 +2528,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>119</v>
@@ -2531,44 +2537,44 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>136</v>
@@ -2577,12 +2583,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>137</v>
@@ -2591,7 +2597,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>138</v>
@@ -2600,12 +2606,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>139</v>
@@ -2614,7 +2620,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>140</v>
@@ -2623,12 +2629,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>141</v>
@@ -2637,7 +2643,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>142</v>
@@ -2646,12 +2652,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>143</v>
@@ -2660,7 +2666,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>144</v>
@@ -2669,12 +2675,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>145</v>
@@ -2683,90 +2689,90 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>151</v>
@@ -2775,7 +2781,7 @@
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>152</v>
@@ -2784,12 +2790,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>153</v>
@@ -2798,7 +2804,7 @@
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>154</v>
@@ -2807,12 +2813,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>155</v>
@@ -2821,7 +2827,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>156</v>
@@ -2830,44 +2836,44 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>72</v>
@@ -2876,12 +2882,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>73</v>
@@ -2890,7 +2896,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>74</v>
@@ -2899,12 +2905,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>75</v>
@@ -2913,7 +2919,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>76</v>
@@ -2922,12 +2928,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>77</v>
@@ -2936,7 +2942,7 @@
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>78</v>
@@ -2945,12 +2951,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>79</v>
@@ -2959,7 +2965,7 @@
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>80</v>
@@ -2968,12 +2974,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>81</v>
@@ -2982,7 +2988,7 @@
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>82</v>
@@ -2991,12 +2997,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>83</v>
@@ -3005,7 +3011,7 @@
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>84</v>
@@ -3014,12 +3020,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>85</v>
@@ -3028,7 +3034,7 @@
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>86</v>
@@ -3037,12 +3043,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>87</v>
@@ -3051,7 +3057,7 @@
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>88</v>
@@ -3060,12 +3066,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>89</v>
@@ -3074,7 +3080,7 @@
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>90</v>
@@ -3083,44 +3089,44 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>93</v>
@@ -3129,12 +3135,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>94</v>
@@ -3143,7 +3149,7 @@
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>95</v>
@@ -3152,12 +3158,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>96</v>
@@ -3166,7 +3172,7 @@
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>97</v>
@@ -3175,12 +3181,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>98</v>
@@ -3189,7 +3195,7 @@
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>99</v>
@@ -3198,12 +3204,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>100</v>
@@ -3212,7 +3218,7 @@
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>101</v>
@@ -3221,12 +3227,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>102</v>
@@ -3235,7 +3241,7 @@
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>103</v>
@@ -3244,12 +3250,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>104</v>
@@ -3258,7 +3264,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>105</v>
@@ -3267,12 +3273,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>106</v>
@@ -3281,7 +3287,7 @@
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>107</v>
@@ -3290,12 +3296,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>108</v>
@@ -3304,7 +3310,7 @@
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>109</v>
@@ -3313,12 +3319,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>110</v>
@@ -3327,7 +3333,7 @@
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>111</v>
@@ -3336,12 +3342,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>112</v>
@@ -3350,7 +3356,7 @@
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>113</v>
@@ -3359,12 +3365,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>114</v>
@@ -3373,7 +3379,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>115</v>
@@ -3382,12 +3388,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>116</v>
@@ -3396,7 +3402,7 @@
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>117</v>
@@ -3405,21 +3411,21 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>119</v>
@@ -3428,44 +3434,44 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>72</v>
@@ -3474,12 +3480,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>73</v>
@@ -3488,7 +3494,7 @@
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>74</v>
@@ -3497,12 +3503,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>75</v>
@@ -3511,7 +3517,7 @@
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>76</v>
@@ -3520,12 +3526,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>77</v>
@@ -3534,7 +3540,7 @@
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>78</v>
@@ -3543,12 +3549,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>79</v>
@@ -3557,7 +3563,7 @@
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>80</v>
@@ -3566,12 +3572,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>81</v>
@@ -3580,7 +3586,7 @@
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>82</v>
@@ -3589,12 +3595,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>83</v>
@@ -3603,7 +3609,7 @@
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>84</v>
@@ -3612,12 +3618,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>85</v>
@@ -3626,7 +3632,7 @@
         <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>86</v>
@@ -3635,12 +3641,12 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>87</v>
@@ -3649,7 +3655,7 @@
         <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>88</v>
@@ -3658,12 +3664,12 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>89</v>
@@ -3672,7 +3678,7 @@
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>90</v>
@@ -3681,44 +3687,44 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>93</v>
@@ -3727,12 +3733,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>94</v>
@@ -3741,7 +3747,7 @@
         <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>95</v>
@@ -3750,12 +3756,12 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>96</v>
@@ -3764,7 +3770,7 @@
         <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>97</v>
@@ -3773,12 +3779,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>98</v>
@@ -3787,7 +3793,7 @@
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>99</v>
@@ -3796,12 +3802,12 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>100</v>
@@ -3810,7 +3816,7 @@
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>101</v>
@@ -3819,12 +3825,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>102</v>
@@ -3833,7 +3839,7 @@
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>103</v>
@@ -3842,12 +3848,12 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>104</v>
@@ -3856,7 +3862,7 @@
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>105</v>
@@ -3865,12 +3871,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>106</v>
@@ -3879,7 +3885,7 @@
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>107</v>
@@ -3888,12 +3894,12 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>108</v>
@@ -3902,7 +3908,7 @@
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>109</v>
@@ -3911,12 +3917,12 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>110</v>
@@ -3925,7 +3931,7 @@
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>111</v>
@@ -3934,12 +3940,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>112</v>
@@ -3948,7 +3954,7 @@
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>113</v>
@@ -3957,12 +3963,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>114</v>
@@ -3971,7 +3977,7 @@
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>115</v>
@@ -3980,12 +3986,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>116</v>
@@ -3994,7 +4000,7 @@
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>117</v>
@@ -4003,21 +4009,21 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>119</v>
@@ -4026,7 +4032,7 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149">
@@ -4034,22 +4040,22 @@
         <v>163</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="E149" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="150">
@@ -4057,16 +4063,16 @@
         <v>165</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4077,7 +4083,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>168</v>
@@ -4086,7 +4092,7 @@
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>169</v>
@@ -4100,39 +4106,39 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C152" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E152" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>136</v>
@@ -4141,12 +4147,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>137</v>
@@ -4155,7 +4161,7 @@
         <v>25</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>138</v>
@@ -4164,12 +4170,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>139</v>
@@ -4178,7 +4184,7 @@
         <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>140</v>
@@ -4187,12 +4193,12 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>141</v>
@@ -4201,7 +4207,7 @@
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>142</v>
@@ -4210,12 +4216,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>143</v>
@@ -4224,7 +4230,7 @@
         <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>144</v>
@@ -4233,12 +4239,12 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>145</v>
@@ -4247,44 +4253,44 @@
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>148</v>
@@ -4293,44 +4299,44 @@
         <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>151</v>
@@ -4339,7 +4345,7 @@
         <v>25</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>152</v>
@@ -4348,12 +4354,12 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>153</v>
@@ -4362,7 +4368,7 @@
         <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>154</v>
@@ -4371,12 +4377,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>155</v>
@@ -4385,7 +4391,7 @@
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>156</v>
@@ -4394,7 +4400,7 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="165">
@@ -4402,36 +4408,36 @@
         <v>172</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="E165" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>177</v>
@@ -4445,7 +4451,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>178</v>
@@ -4454,7 +4460,7 @@
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>179</v>
@@ -4463,6 +4469,29 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -213,12 +213,6 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
-  </si>
-  <si>
-    <t>Identificativo Atto Cartaceo</t>
-  </si>
-  <si>
-    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Deceduto</t>
@@ -616,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1254,19 +1248,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1277,16 +1271,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1300,16 +1294,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1323,16 +1317,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1346,7 +1340,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
@@ -1355,7 +1349,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1369,7 +1363,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1378,7 +1372,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1392,7 +1386,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1401,7 +1395,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1415,16 +1409,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1438,7 +1432,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -1447,7 +1441,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1461,7 +1455,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1470,7 +1464,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1484,7 +1478,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1493,7 +1487,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1507,19 +1501,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1530,16 +1524,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>93</v>
@@ -1553,7 +1547,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>94</v>
@@ -1562,7 +1556,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1576,7 +1570,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>96</v>
@@ -1585,7 +1579,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>97</v>
@@ -1599,7 +1593,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>98</v>
@@ -1608,7 +1602,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>99</v>
@@ -1622,7 +1616,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>100</v>
@@ -1631,7 +1625,7 @@
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>101</v>
@@ -1645,7 +1639,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>102</v>
@@ -1654,7 +1648,7 @@
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>103</v>
@@ -1668,7 +1662,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>104</v>
@@ -1677,7 +1671,7 @@
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>105</v>
@@ -1691,7 +1685,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>106</v>
@@ -1700,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>107</v>
@@ -1714,7 +1708,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>108</v>
@@ -1723,7 +1717,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>109</v>
@@ -1737,7 +1731,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>110</v>
@@ -1746,7 +1740,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>111</v>
@@ -1760,7 +1754,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>112</v>
@@ -1769,7 +1763,7 @@
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>113</v>
@@ -1783,7 +1777,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>114</v>
@@ -1792,7 +1786,7 @@
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>115</v>
@@ -1806,7 +1800,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>116</v>
@@ -1815,7 +1809,7 @@
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>117</v>
@@ -1829,7 +1823,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>118</v>
@@ -1838,7 +1832,7 @@
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>119</v>
@@ -1852,7 +1846,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>120</v>
@@ -1861,7 +1855,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>121</v>
@@ -1875,7 +1869,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>122</v>
@@ -1884,7 +1878,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>123</v>
@@ -1898,7 +1892,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>124</v>
@@ -1907,7 +1901,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>125</v>
@@ -1921,7 +1915,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>126</v>
@@ -1930,7 +1924,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>127</v>
@@ -1944,39 +1938,39 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>72</v>
@@ -1985,21 +1979,21 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>74</v>
@@ -2008,21 +2002,21 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>76</v>
@@ -2031,12 +2025,12 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>77</v>
@@ -2045,7 +2039,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>78</v>
@@ -2054,12 +2048,12 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>79</v>
@@ -2068,7 +2062,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>80</v>
@@ -2077,12 +2071,12 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>81</v>
@@ -2091,7 +2085,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>82</v>
@@ -2100,21 +2094,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>84</v>
@@ -2123,12 +2117,12 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>85</v>
@@ -2137,7 +2131,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>86</v>
@@ -2146,12 +2140,12 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>87</v>
@@ -2160,7 +2154,7 @@
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>88</v>
@@ -2169,12 +2163,12 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>89</v>
@@ -2183,7 +2177,7 @@
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>90</v>
@@ -2192,44 +2186,44 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>93</v>
@@ -2238,12 +2232,12 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>94</v>
@@ -2252,7 +2246,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>95</v>
@@ -2261,21 +2255,21 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>97</v>
@@ -2284,12 +2278,12 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>98</v>
@@ -2298,7 +2292,7 @@
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>99</v>
@@ -2307,12 +2301,12 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>100</v>
@@ -2321,7 +2315,7 @@
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>101</v>
@@ -2330,12 +2324,12 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>102</v>
@@ -2344,7 +2338,7 @@
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>103</v>
@@ -2353,12 +2347,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>104</v>
@@ -2367,7 +2361,7 @@
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>105</v>
@@ -2376,12 +2370,12 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>106</v>
@@ -2390,7 +2384,7 @@
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>107</v>
@@ -2399,12 +2393,12 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>108</v>
@@ -2413,7 +2407,7 @@
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>109</v>
@@ -2422,12 +2416,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>110</v>
@@ -2436,7 +2430,7 @@
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>111</v>
@@ -2445,12 +2439,12 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>112</v>
@@ -2459,7 +2453,7 @@
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>113</v>
@@ -2468,21 +2462,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>115</v>
@@ -2491,12 +2485,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>116</v>
@@ -2505,7 +2499,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>117</v>
@@ -2514,12 +2508,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>118</v>
@@ -2528,7 +2522,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>119</v>
@@ -2537,44 +2531,44 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>136</v>
@@ -2583,12 +2577,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>137</v>
@@ -2597,7 +2591,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>138</v>
@@ -2606,12 +2600,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>139</v>
@@ -2620,7 +2614,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>140</v>
@@ -2629,12 +2623,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>141</v>
@@ -2643,7 +2637,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>142</v>
@@ -2652,12 +2646,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>143</v>
@@ -2666,7 +2660,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>144</v>
@@ -2675,12 +2669,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>145</v>
@@ -2689,90 +2683,90 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>151</v>
@@ -2781,7 +2775,7 @@
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>152</v>
@@ -2790,12 +2784,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>153</v>
@@ -2804,7 +2798,7 @@
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>154</v>
@@ -2813,12 +2807,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>155</v>
@@ -2827,7 +2821,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>156</v>
@@ -2836,44 +2830,44 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>72</v>
@@ -2882,12 +2876,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>73</v>
@@ -2896,7 +2890,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>74</v>
@@ -2905,12 +2899,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>75</v>
@@ -2919,7 +2913,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>76</v>
@@ -2928,12 +2922,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>77</v>
@@ -2942,7 +2936,7 @@
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>78</v>
@@ -2951,12 +2945,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>79</v>
@@ -2965,7 +2959,7 @@
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>80</v>
@@ -2974,12 +2968,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>81</v>
@@ -2988,7 +2982,7 @@
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>82</v>
@@ -2997,12 +2991,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>83</v>
@@ -3011,7 +3005,7 @@
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>84</v>
@@ -3020,12 +3014,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>85</v>
@@ -3034,7 +3028,7 @@
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>86</v>
@@ -3043,12 +3037,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>87</v>
@@ -3057,7 +3051,7 @@
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>88</v>
@@ -3066,12 +3060,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>89</v>
@@ -3080,7 +3074,7 @@
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>90</v>
@@ -3089,44 +3083,44 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>93</v>
@@ -3135,12 +3129,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>94</v>
@@ -3149,7 +3143,7 @@
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>95</v>
@@ -3158,12 +3152,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>96</v>
@@ -3172,7 +3166,7 @@
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>97</v>
@@ -3181,12 +3175,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>98</v>
@@ -3195,7 +3189,7 @@
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>99</v>
@@ -3204,12 +3198,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>100</v>
@@ -3218,7 +3212,7 @@
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>101</v>
@@ -3227,12 +3221,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>102</v>
@@ -3241,7 +3235,7 @@
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>103</v>
@@ -3250,12 +3244,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>104</v>
@@ -3264,7 +3258,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>105</v>
@@ -3273,12 +3267,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>106</v>
@@ -3287,7 +3281,7 @@
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>107</v>
@@ -3296,12 +3290,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>108</v>
@@ -3310,7 +3304,7 @@
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>109</v>
@@ -3319,12 +3313,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>110</v>
@@ -3333,7 +3327,7 @@
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>111</v>
@@ -3342,12 +3336,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>112</v>
@@ -3356,7 +3350,7 @@
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>113</v>
@@ -3365,12 +3359,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>114</v>
@@ -3379,7 +3373,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>115</v>
@@ -3388,12 +3382,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>116</v>
@@ -3402,7 +3396,7 @@
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>117</v>
@@ -3411,21 +3405,21 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>119</v>
@@ -3434,44 +3428,44 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>72</v>
@@ -3480,12 +3474,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>73</v>
@@ -3494,7 +3488,7 @@
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>74</v>
@@ -3503,12 +3497,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>75</v>
@@ -3517,7 +3511,7 @@
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>76</v>
@@ -3526,12 +3520,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>77</v>
@@ -3540,7 +3534,7 @@
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>78</v>
@@ -3549,12 +3543,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>79</v>
@@ -3563,7 +3557,7 @@
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>80</v>
@@ -3572,12 +3566,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>81</v>
@@ -3586,7 +3580,7 @@
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>82</v>
@@ -3595,12 +3589,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>83</v>
@@ -3609,7 +3603,7 @@
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>84</v>
@@ -3618,12 +3612,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>85</v>
@@ -3632,7 +3626,7 @@
         <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>86</v>
@@ -3641,12 +3635,12 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>87</v>
@@ -3655,7 +3649,7 @@
         <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>88</v>
@@ -3664,12 +3658,12 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>89</v>
@@ -3678,7 +3672,7 @@
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>90</v>
@@ -3687,44 +3681,44 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>93</v>
@@ -3733,12 +3727,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>94</v>
@@ -3747,7 +3741,7 @@
         <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>95</v>
@@ -3756,12 +3750,12 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>96</v>
@@ -3770,7 +3764,7 @@
         <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>97</v>
@@ -3779,12 +3773,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>98</v>
@@ -3793,7 +3787,7 @@
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>99</v>
@@ -3802,12 +3796,12 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>100</v>
@@ -3816,7 +3810,7 @@
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>101</v>
@@ -3825,12 +3819,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>102</v>
@@ -3839,7 +3833,7 @@
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>103</v>
@@ -3848,12 +3842,12 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>104</v>
@@ -3862,7 +3856,7 @@
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>105</v>
@@ -3871,12 +3865,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>106</v>
@@ -3885,7 +3879,7 @@
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>107</v>
@@ -3894,12 +3888,12 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>108</v>
@@ -3908,7 +3902,7 @@
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>109</v>
@@ -3917,12 +3911,12 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>110</v>
@@ -3931,7 +3925,7 @@
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>111</v>
@@ -3940,12 +3934,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>112</v>
@@ -3954,7 +3948,7 @@
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>113</v>
@@ -3963,12 +3957,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>114</v>
@@ -3977,7 +3971,7 @@
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>115</v>
@@ -3986,12 +3980,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>116</v>
@@ -4000,7 +3994,7 @@
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>117</v>
@@ -4009,21 +4003,21 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>119</v>
@@ -4032,7 +4026,7 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149">
@@ -4040,22 +4034,22 @@
         <v>163</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150">
@@ -4063,16 +4057,16 @@
         <v>165</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4083,7 +4077,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>168</v>
@@ -4092,7 +4086,7 @@
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>169</v>
@@ -4106,39 +4100,39 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>136</v>
@@ -4147,12 +4141,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>137</v>
@@ -4161,7 +4155,7 @@
         <v>25</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>138</v>
@@ -4170,12 +4164,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>139</v>
@@ -4184,7 +4178,7 @@
         <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>140</v>
@@ -4193,12 +4187,12 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>141</v>
@@ -4207,7 +4201,7 @@
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>142</v>
@@ -4216,12 +4210,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>143</v>
@@ -4230,7 +4224,7 @@
         <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>144</v>
@@ -4239,12 +4233,12 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>145</v>
@@ -4253,44 +4247,44 @@
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>148</v>
@@ -4299,44 +4293,44 @@
         <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>151</v>
@@ -4345,7 +4339,7 @@
         <v>25</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>152</v>
@@ -4354,12 +4348,12 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>153</v>
@@ -4368,7 +4362,7 @@
         <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>154</v>
@@ -4377,12 +4371,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>155</v>
@@ -4391,7 +4385,7 @@
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>156</v>
@@ -4400,7 +4394,7 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="165">
@@ -4408,36 +4402,36 @@
         <v>172</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>177</v>
@@ -4451,7 +4445,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>178</v>
@@ -4460,7 +4454,7 @@
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>179</v>
@@ -4469,29 +4463,6 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="186">
   <si>
     <t>Sezione</t>
   </si>
@@ -249,6 +249,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -616,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1375,7 +1387,7 @@
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>71</v>
@@ -1398,7 +1410,7 @@
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>71</v>
@@ -1444,7 +1456,7 @@
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>71</v>
@@ -1467,7 +1479,7 @@
         <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>71</v>
@@ -1533,7 +1545,7 @@
         <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>25</v>
@@ -1542,7 +1554,7 @@
         <v>71</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1556,7 +1568,7 @@
         <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
@@ -1565,7 +1577,7 @@
         <v>71</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1579,7 +1591,7 @@
         <v>69</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>25</v>
@@ -1967,608 +1979,608 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
@@ -2577,21 +2589,21 @@
         <v>135</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2600,21 +2612,21 @@
         <v>135</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -2623,21 +2635,21 @@
         <v>135</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -2646,818 +2658,818 @@
         <v>135</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124">
@@ -3465,22 +3477,22 @@
         <v>163</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125">
@@ -3488,22 +3500,22 @@
         <v>163</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126">
@@ -3511,22 +3523,22 @@
         <v>163</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127">
@@ -3534,22 +3546,22 @@
         <v>163</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128">
@@ -3557,22 +3569,22 @@
         <v>163</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129">
@@ -3580,505 +3592,505 @@
         <v>163</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151">
@@ -4086,22 +4098,22 @@
         <v>167</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="152">
@@ -4109,389 +4121,573 @@
         <v>167</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C159" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E159" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E168" s="2" t="s">
+      <c r="E174" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="188">
   <si>
     <t>Sezione</t>
   </si>
@@ -35,6 +35,18 @@
     <t>Condizioni obbligatorieta'</t>
   </si>
   <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -44,9 +56,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -87,9 +96,6 @@
   </si>
   <si>
     <t>Data morte</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>evento.datiDiMorte</t>
@@ -628,7 +634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -690,63 +696,63 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -755,90 +761,90 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>29</v>
@@ -847,21 +853,21 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
@@ -870,21 +876,21 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>33</v>
@@ -893,21 +899,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>35</v>
@@ -916,21 +922,21 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>37</v>
@@ -939,21 +945,21 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>39</v>
@@ -962,12 +968,12 @@
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>40</v>
@@ -976,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>41</v>
@@ -985,21 +991,21 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>43</v>
@@ -1008,21 +1014,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>45</v>
@@ -1031,21 +1037,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>47</v>
@@ -1054,21 +1060,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>49</v>
@@ -1077,21 +1083,21 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>51</v>
@@ -1100,21 +1106,21 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>53</v>
@@ -1123,21 +1129,21 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>55</v>
@@ -1146,44 +1152,44 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -1192,21 +1198,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>62</v>
@@ -1215,21 +1221,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>64</v>
@@ -1238,21 +1244,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>66</v>
@@ -1261,21 +1267,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>68</v>
@@ -1284,44 +1290,44 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1330,21 +1336,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1353,12 +1359,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
@@ -1367,7 +1373,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1376,21 +1382,21 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1399,21 +1405,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1422,12 +1428,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1436,7 +1442,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1445,21 +1451,21 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1468,21 +1474,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1491,21 +1497,21 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1514,21 +1520,21 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1537,21 +1543,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1560,21 +1566,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1583,44 +1589,44 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>99</v>
@@ -1629,21 +1635,21 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>101</v>
@@ -1652,21 +1658,21 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>103</v>
@@ -1675,21 +1681,21 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>105</v>
@@ -1698,21 +1704,21 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>107</v>
@@ -1721,21 +1727,21 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>109</v>
@@ -1744,21 +1750,21 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>111</v>
@@ -1767,21 +1773,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>113</v>
@@ -1790,21 +1796,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>115</v>
@@ -1813,21 +1819,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>117</v>
@@ -1836,21 +1842,21 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>119</v>
@@ -1859,21 +1865,21 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>121</v>
@@ -1882,21 +1888,21 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>123</v>
@@ -1905,21 +1911,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>125</v>
@@ -1928,21 +1934,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>127</v>
@@ -1951,21 +1957,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>129</v>
@@ -1974,21 +1980,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>131</v>
@@ -1997,21 +2003,21 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>133</v>
@@ -2020,44 +2026,44 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>74</v>
@@ -2066,21 +2072,21 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>76</v>
@@ -2089,12 +2095,12 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>77</v>
@@ -2103,7 +2109,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>78</v>
@@ -2112,21 +2118,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>80</v>
@@ -2135,21 +2141,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>82</v>
@@ -2158,12 +2164,12 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>83</v>
@@ -2172,7 +2178,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>84</v>
@@ -2181,21 +2187,21 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>86</v>
@@ -2204,21 +2210,21 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>88</v>
@@ -2227,21 +2233,21 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>90</v>
@@ -2250,21 +2256,21 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>92</v>
@@ -2273,21 +2279,21 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>94</v>
@@ -2296,21 +2302,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>96</v>
@@ -2319,44 +2325,44 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>99</v>
@@ -2365,21 +2371,21 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>101</v>
@@ -2388,21 +2394,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>103</v>
@@ -2411,21 +2417,21 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>105</v>
@@ -2434,21 +2440,21 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>107</v>
@@ -2457,21 +2463,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>109</v>
@@ -2480,21 +2486,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>111</v>
@@ -2503,21 +2509,21 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>113</v>
@@ -2526,21 +2532,21 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>115</v>
@@ -2549,21 +2555,21 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>117</v>
@@ -2572,21 +2578,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>119</v>
@@ -2595,12 +2601,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>120</v>
@@ -2609,7 +2615,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>121</v>
@@ -2618,21 +2624,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>123</v>
@@ -2641,21 +2647,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>125</v>
@@ -2664,44 +2670,44 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>142</v>
@@ -2710,21 +2716,21 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>144</v>
@@ -2733,21 +2739,21 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>146</v>
@@ -2756,21 +2762,21 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>148</v>
@@ -2779,21 +2785,21 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>150</v>
@@ -2802,113 +2808,113 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>158</v>
@@ -2917,21 +2923,21 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>160</v>
@@ -2940,21 +2946,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>162</v>
@@ -2963,44 +2969,44 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>74</v>
@@ -3009,21 +3015,21 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>76</v>
@@ -3032,21 +3038,21 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>78</v>
@@ -3055,21 +3061,21 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>80</v>
@@ -3078,21 +3084,21 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>82</v>
@@ -3101,21 +3107,21 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>84</v>
@@ -3124,21 +3130,21 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>86</v>
@@ -3147,21 +3153,21 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>88</v>
@@ -3170,21 +3176,21 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>90</v>
@@ -3193,21 +3199,21 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>92</v>
@@ -3216,21 +3222,21 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>94</v>
@@ -3239,21 +3245,21 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>96</v>
@@ -3262,44 +3268,44 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>99</v>
@@ -3308,21 +3314,21 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>101</v>
@@ -3331,21 +3337,21 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>103</v>
@@ -3354,21 +3360,21 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>105</v>
@@ -3377,21 +3383,21 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>107</v>
@@ -3400,21 +3406,21 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>109</v>
@@ -3423,21 +3429,21 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>111</v>
@@ -3446,21 +3452,21 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>113</v>
@@ -3469,21 +3475,21 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>115</v>
@@ -3492,21 +3498,21 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>117</v>
@@ -3515,21 +3521,21 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>119</v>
@@ -3538,21 +3544,21 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>121</v>
@@ -3561,21 +3567,21 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>123</v>
@@ -3584,21 +3590,21 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>125</v>
@@ -3607,44 +3613,44 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>74</v>
@@ -3653,21 +3659,21 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>76</v>
@@ -3676,21 +3682,21 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>78</v>
@@ -3699,21 +3705,21 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>80</v>
@@ -3722,21 +3728,21 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>82</v>
@@ -3745,21 +3751,21 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>84</v>
@@ -3768,21 +3774,21 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>86</v>
@@ -3791,21 +3797,21 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>88</v>
@@ -3814,21 +3820,21 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>90</v>
@@ -3837,21 +3843,21 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>92</v>
@@ -3860,21 +3866,21 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>94</v>
@@ -3883,21 +3889,21 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>96</v>
@@ -3906,44 +3912,44 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>99</v>
@@ -3952,21 +3958,21 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>101</v>
@@ -3975,21 +3981,21 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>103</v>
@@ -3998,21 +4004,21 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>105</v>
@@ -4021,21 +4027,21 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>107</v>
@@ -4044,21 +4050,21 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>109</v>
@@ -4067,21 +4073,21 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>111</v>
@@ -4090,21 +4096,21 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>113</v>
@@ -4113,21 +4119,21 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>115</v>
@@ -4136,21 +4142,21 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>117</v>
@@ -4159,21 +4165,21 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>119</v>
@@ -4182,21 +4188,21 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>121</v>
@@ -4205,21 +4211,21 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>123</v>
@@ -4228,21 +4234,21 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>125</v>
@@ -4251,7 +4257,7 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158">
@@ -4259,22 +4265,22 @@
         <v>169</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="E158" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="159">
@@ -4282,36 +4288,36 @@
         <v>171</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>175</v>
@@ -4320,44 +4326,44 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C161" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E161" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>142</v>
@@ -4366,21 +4372,21 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>144</v>
@@ -4389,21 +4395,21 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>146</v>
@@ -4412,21 +4418,21 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>148</v>
@@ -4435,21 +4441,21 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>150</v>
@@ -4458,113 +4464,113 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>158</v>
@@ -4573,21 +4579,21 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>160</v>
@@ -4596,21 +4602,21 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>162</v>
@@ -4619,7 +4625,7 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="174">
@@ -4627,36 +4633,36 @@
         <v>178</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="E174" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>183</v>
@@ -4665,21 +4671,21 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>185</v>
@@ -4688,7 +4694,30 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="190">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>idAttoCartaceo</t>
+  </si>
+  <si>
+    <t>Atto secretato</t>
+  </si>
+  <si>
+    <t>flagsecretato</t>
   </si>
   <si>
     <t>Deceduto</t>
@@ -634,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:H178"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1318,19 +1324,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1341,16 +1347,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1364,16 +1370,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1387,16 +1393,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1410,16 +1416,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1433,7 +1439,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1442,7 +1448,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1456,16 +1462,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1479,7 +1485,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1488,7 +1494,7 @@
         <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1502,7 +1508,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1511,7 +1517,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1525,16 +1531,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1548,7 +1554,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1557,7 +1563,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1571,7 +1577,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
@@ -1580,7 +1586,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1594,7 +1600,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1603,7 +1609,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1617,19 +1623,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1640,16 +1646,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>101</v>
@@ -1663,7 +1669,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>102</v>
@@ -1672,7 +1678,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>103</v>
@@ -1686,7 +1692,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>104</v>
@@ -1695,7 +1701,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>105</v>
@@ -1709,7 +1715,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>106</v>
@@ -1718,7 +1724,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>107</v>
@@ -1732,7 +1738,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>108</v>
@@ -1741,7 +1747,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>109</v>
@@ -1755,7 +1761,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>110</v>
@@ -1764,7 +1770,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>111</v>
@@ -1778,7 +1784,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>112</v>
@@ -1787,7 +1793,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>113</v>
@@ -1801,7 +1807,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>114</v>
@@ -1810,7 +1816,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>115</v>
@@ -1824,7 +1830,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>116</v>
@@ -1833,7 +1839,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>117</v>
@@ -1847,7 +1853,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>118</v>
@@ -1856,7 +1862,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>119</v>
@@ -1870,7 +1876,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>120</v>
@@ -1879,7 +1885,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>121</v>
@@ -1893,7 +1899,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>122</v>
@@ -1902,7 +1908,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>123</v>
@@ -1916,7 +1922,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>124</v>
@@ -1925,7 +1931,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>125</v>
@@ -1939,7 +1945,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>126</v>
@@ -1948,7 +1954,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>127</v>
@@ -1962,7 +1968,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>128</v>
@@ -1971,7 +1977,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>129</v>
@@ -1985,7 +1991,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>130</v>
@@ -1994,7 +2000,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>131</v>
@@ -2008,7 +2014,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>132</v>
@@ -2017,7 +2023,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>133</v>
@@ -2031,7 +2037,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>134</v>
@@ -2040,7 +2046,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>135</v>
@@ -2054,39 +2060,39 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>76</v>
@@ -2095,21 +2101,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>78</v>
@@ -2118,21 +2124,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>80</v>
@@ -2141,21 +2147,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>82</v>
@@ -2164,12 +2170,12 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>83</v>
@@ -2178,7 +2184,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>84</v>
@@ -2187,21 +2193,21 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>86</v>
@@ -2210,12 +2216,12 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>87</v>
@@ -2224,7 +2230,7 @@
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>88</v>
@@ -2233,12 +2239,12 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>89</v>
@@ -2247,7 +2253,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>90</v>
@@ -2256,21 +2262,21 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>92</v>
@@ -2279,12 +2285,12 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>93</v>
@@ -2293,7 +2299,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>94</v>
@@ -2302,12 +2308,12 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>95</v>
@@ -2316,7 +2322,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>96</v>
@@ -2325,12 +2331,12 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>97</v>
@@ -2339,7 +2345,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>98</v>
@@ -2348,44 +2354,44 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>101</v>
@@ -2394,12 +2400,12 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>102</v>
@@ -2408,7 +2414,7 @@
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>103</v>
@@ -2417,21 +2423,21 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>105</v>
@@ -2440,12 +2446,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>106</v>
@@ -2454,7 +2460,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>107</v>
@@ -2463,12 +2469,12 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>108</v>
@@ -2477,7 +2483,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>109</v>
@@ -2486,12 +2492,12 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>110</v>
@@ -2500,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>111</v>
@@ -2509,12 +2515,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>112</v>
@@ -2523,7 +2529,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>113</v>
@@ -2532,12 +2538,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>114</v>
@@ -2546,7 +2552,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>115</v>
@@ -2555,12 +2561,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>116</v>
@@ -2569,7 +2575,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>117</v>
@@ -2578,12 +2584,12 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>118</v>
@@ -2592,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>119</v>
@@ -2601,12 +2607,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>120</v>
@@ -2615,7 +2621,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>121</v>
@@ -2624,21 +2630,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>123</v>
@@ -2647,12 +2653,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>124</v>
@@ -2661,7 +2667,7 @@
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>125</v>
@@ -2670,12 +2676,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>126</v>
@@ -2684,7 +2690,7 @@
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>127</v>
@@ -2693,44 +2699,44 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>144</v>
@@ -2739,12 +2745,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>145</v>
@@ -2753,7 +2759,7 @@
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>146</v>
@@ -2762,12 +2768,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>147</v>
@@ -2776,7 +2782,7 @@
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>148</v>
@@ -2785,12 +2791,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>149</v>
@@ -2799,7 +2805,7 @@
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>150</v>
@@ -2808,12 +2814,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>151</v>
@@ -2822,7 +2828,7 @@
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>152</v>
@@ -2831,12 +2837,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>153</v>
@@ -2845,90 +2851,90 @@
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>159</v>
@@ -2937,7 +2943,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>160</v>
@@ -2946,12 +2952,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>161</v>
@@ -2960,7 +2966,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>162</v>
@@ -2969,12 +2975,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>163</v>
@@ -2983,7 +2989,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>164</v>
@@ -2992,44 +2998,44 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>76</v>
@@ -3038,12 +3044,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>77</v>
@@ -3052,7 +3058,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>78</v>
@@ -3061,12 +3067,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>79</v>
@@ -3075,7 +3081,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>80</v>
@@ -3084,12 +3090,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>81</v>
@@ -3098,7 +3104,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>82</v>
@@ -3107,12 +3113,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>83</v>
@@ -3121,7 +3127,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>84</v>
@@ -3130,12 +3136,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>85</v>
@@ -3144,7 +3150,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>86</v>
@@ -3153,12 +3159,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>87</v>
@@ -3167,7 +3173,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>88</v>
@@ -3176,12 +3182,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>89</v>
@@ -3190,7 +3196,7 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>90</v>
@@ -3199,12 +3205,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>91</v>
@@ -3213,7 +3219,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>92</v>
@@ -3222,12 +3228,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>93</v>
@@ -3236,7 +3242,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>94</v>
@@ -3245,12 +3251,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>95</v>
@@ -3259,7 +3265,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>96</v>
@@ -3268,12 +3274,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>97</v>
@@ -3282,7 +3288,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>98</v>
@@ -3291,44 +3297,44 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>101</v>
@@ -3337,12 +3343,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>102</v>
@@ -3351,7 +3357,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>103</v>
@@ -3360,12 +3366,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>104</v>
@@ -3374,7 +3380,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>105</v>
@@ -3383,12 +3389,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>106</v>
@@ -3397,7 +3403,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>107</v>
@@ -3406,12 +3412,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>108</v>
@@ -3420,7 +3426,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>109</v>
@@ -3429,12 +3435,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>110</v>
@@ -3443,7 +3449,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>111</v>
@@ -3452,12 +3458,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>112</v>
@@ -3466,7 +3472,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>113</v>
@@ -3475,12 +3481,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>114</v>
@@ -3489,7 +3495,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>115</v>
@@ -3498,12 +3504,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>116</v>
@@ -3512,7 +3518,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>117</v>
@@ -3521,12 +3527,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>118</v>
@@ -3535,7 +3541,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>119</v>
@@ -3544,12 +3550,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>120</v>
@@ -3558,7 +3564,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>121</v>
@@ -3567,12 +3573,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>122</v>
@@ -3581,7 +3587,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>123</v>
@@ -3590,12 +3596,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>124</v>
@@ -3604,7 +3610,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>125</v>
@@ -3613,21 +3619,21 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>127</v>
@@ -3636,44 +3642,44 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>76</v>
@@ -3682,12 +3688,12 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>77</v>
@@ -3696,7 +3702,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>78</v>
@@ -3705,12 +3711,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>79</v>
@@ -3719,7 +3725,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>80</v>
@@ -3728,12 +3734,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>81</v>
@@ -3742,7 +3748,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>82</v>
@@ -3751,12 +3757,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>83</v>
@@ -3765,7 +3771,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>84</v>
@@ -3774,12 +3780,12 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>85</v>
@@ -3788,7 +3794,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>86</v>
@@ -3797,12 +3803,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>87</v>
@@ -3811,7 +3817,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>88</v>
@@ -3820,12 +3826,12 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>89</v>
@@ -3834,7 +3840,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>90</v>
@@ -3843,12 +3849,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>91</v>
@@ -3857,7 +3863,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>92</v>
@@ -3866,12 +3872,12 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>93</v>
@@ -3880,7 +3886,7 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>94</v>
@@ -3889,12 +3895,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>95</v>
@@ -3903,7 +3909,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>96</v>
@@ -3912,12 +3918,12 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>97</v>
@@ -3926,7 +3932,7 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>98</v>
@@ -3935,44 +3941,44 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>101</v>
@@ -3981,12 +3987,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>102</v>
@@ -3995,7 +4001,7 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>103</v>
@@ -4004,12 +4010,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>104</v>
@@ -4018,7 +4024,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>105</v>
@@ -4027,12 +4033,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>106</v>
@@ -4041,7 +4047,7 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>107</v>
@@ -4050,12 +4056,12 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>108</v>
@@ -4064,7 +4070,7 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>109</v>
@@ -4073,12 +4079,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>110</v>
@@ -4087,7 +4093,7 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>111</v>
@@ -4096,12 +4102,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>112</v>
@@ -4110,7 +4116,7 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>113</v>
@@ -4119,12 +4125,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>114</v>
@@ -4133,7 +4139,7 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>115</v>
@@ -4142,12 +4148,12 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>116</v>
@@ -4156,7 +4162,7 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>117</v>
@@ -4165,12 +4171,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>118</v>
@@ -4179,7 +4185,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>119</v>
@@ -4188,12 +4194,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>120</v>
@@ -4202,7 +4208,7 @@
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>121</v>
@@ -4211,12 +4217,12 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>122</v>
@@ -4225,7 +4231,7 @@
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>123</v>
@@ -4234,12 +4240,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>124</v>
@@ -4248,7 +4254,7 @@
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>125</v>
@@ -4257,21 +4263,21 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>127</v>
@@ -4280,7 +4286,7 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159">
@@ -4288,22 +4294,22 @@
         <v>171</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="E159" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="160">
@@ -4311,16 +4317,16 @@
         <v>173</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4331,7 +4337,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>176</v>
@@ -4340,7 +4346,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>177</v>
@@ -4354,39 +4360,39 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E162" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>144</v>
@@ -4395,12 +4401,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>145</v>
@@ -4409,7 +4415,7 @@
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>146</v>
@@ -4418,12 +4424,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>147</v>
@@ -4432,7 +4438,7 @@
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>148</v>
@@ -4441,12 +4447,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>149</v>
@@ -4455,7 +4461,7 @@
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>150</v>
@@ -4464,12 +4470,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>151</v>
@@ -4478,7 +4484,7 @@
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>152</v>
@@ -4487,12 +4493,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>153</v>
@@ -4501,44 +4507,44 @@
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>156</v>
@@ -4547,44 +4553,44 @@
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>159</v>
@@ -4593,7 +4599,7 @@
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>160</v>
@@ -4602,12 +4608,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>161</v>
@@ -4616,7 +4622,7 @@
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>162</v>
@@ -4625,12 +4631,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>163</v>
@@ -4639,7 +4645,7 @@
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>164</v>
@@ -4648,7 +4654,7 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="175">
@@ -4656,36 +4662,36 @@
         <v>180</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E175" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>185</v>
@@ -4699,7 +4705,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>186</v>
@@ -4708,7 +4714,7 @@
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>187</v>
@@ -4717,6 +4723,29 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>19</v>
       </c>
     </row>
